--- a/Regression.xlsx
+++ b/Regression.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\j2bom\source\repos\Computer Algorithms\Regression_Estimation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{882AB3F2-4C63-491C-90FE-05A37D9EC042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C2E9CB-973C-4BDF-8DCD-FACB799CEC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{99DD05F6-8F0F-4D8F-8275-1843E58ADC3D}"/>
   </bookViews>
@@ -393,6 +393,20 @@
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1754,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEAB4F96-9946-4DC4-B148-7062DE53E452}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
